--- a/resources/repository/InvalidData_LibertyInsurance.xlsx
+++ b/resources/repository/InvalidData_LibertyInsurance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="114">
   <si>
     <t>TestCase Id</t>
   </si>
@@ -284,9 +284,6 @@
   </si>
   <si>
     <t>23</t>
-  </si>
-  <si>
-    <t>TC09</t>
   </si>
   <si>
     <t>House No. 12</t>
@@ -805,10 +802,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AM15"/>
+  <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -867,13 +864,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="34" t="s">
         <v>109</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>110</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>8</v>
@@ -961,41 +958,32 @@
       </c>
     </row>
     <row r="2" spans="1:39" thickTop="1">
-      <c r="A2" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>42</v>
+      <c r="G2" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>44</v>
+      <c r="L2" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="M2" s="18" t="s">
         <v>45</v>
@@ -1007,7 +995,7 @@
         <v>47</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
@@ -1019,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="W2" s="18" t="s">
         <v>50</v>
@@ -1097,10 +1085,10 @@
         <v>43</v>
       </c>
       <c r="I3" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="35" t="s">
         <v>111</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>112</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>49</v>
@@ -1602,29 +1590,38 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="15">
-      <c r="A8" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>65</v>
+      <c r="G8" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>43</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="L8" s="22" t="s">
         <v>44</v>
@@ -1639,7 +1636,7 @@
         <v>47</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
@@ -1651,7 +1648,7 @@
         <v>51</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="W8" s="18" t="s">
         <v>50</v>
@@ -1705,39 +1702,39 @@
     </row>
     <row r="9" spans="1:39" ht="15">
       <c r="A9" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>42</v>
+        <v>88</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="P9" s="8" t="s">
@@ -1809,34 +1806,34 @@
     </row>
     <row r="10" spans="1:39" ht="15">
       <c r="A10" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>96</v>
+      <c r="M10" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="N10" s="13" t="s">
         <v>46</v>
@@ -1845,7 +1842,7 @@
         <v>47</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="15" t="s">
@@ -1913,34 +1910,34 @@
     </row>
     <row r="11" spans="1:39" ht="15">
       <c r="A11" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>95</v>
-      </c>
       <c r="M11" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>46</v>
@@ -1949,7 +1946,7 @@
         <v>47</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="R11" s="15" t="s">
@@ -1963,7 +1960,7 @@
         <v>51</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="W11" s="8" t="s">
         <v>50</v>
@@ -2017,34 +2014,34 @@
     </row>
     <row r="12" spans="1:39" ht="15">
       <c r="A12" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>95</v>
-      </c>
       <c r="M12" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N12" s="13" t="s">
         <v>46</v>
@@ -2056,8 +2053,8 @@
         <v>48</v>
       </c>
       <c r="Q12" s="8"/>
-      <c r="R12" s="15" t="s">
-        <v>49</v>
+      <c r="R12" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="S12" s="8"/>
       <c r="T12" s="8" t="s">
@@ -2067,7 +2064,7 @@
         <v>51</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="W12" s="8" t="s">
         <v>50</v>
@@ -2127,28 +2124,28 @@
         <v>49</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>95</v>
-      </c>
       <c r="M13" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N13" s="13" t="s">
         <v>46</v>
@@ -2160,8 +2157,8 @@
         <v>48</v>
       </c>
       <c r="Q13" s="8"/>
-      <c r="R13" s="32" t="s">
-        <v>99</v>
+      <c r="R13" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="S13" s="8"/>
       <c r="T13" s="8" t="s">
@@ -2177,7 +2174,7 @@
         <v>50</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="Y13" s="13" t="s">
         <v>43</v>
@@ -2225,34 +2222,34 @@
     </row>
     <row r="14" spans="1:39" ht="15">
       <c r="A14" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>95</v>
-      </c>
       <c r="M14" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N14" s="13" t="s">
         <v>46</v>
@@ -2281,7 +2278,7 @@
         <v>50</v>
       </c>
       <c r="X14" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y14" s="13" t="s">
         <v>43</v>
@@ -2307,8 +2304,8 @@
       <c r="AF14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AG14" s="13">
-        <v>1231231231</v>
+      <c r="AG14" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="AH14" s="16" t="s">
         <v>47</v>
@@ -2324,110 +2321,6 @@
         <v>60</v>
       </c>
       <c r="AM14" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" ht="15">
-      <c r="A15" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="U15" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="X15" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y15" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA15" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG15" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL15" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM15" s="8" t="s">
         <v>61</v>
       </c>
     </row>

--- a/resources/repository/InvalidData_LibertyInsurance.xlsx
+++ b/resources/repository/InvalidData_LibertyInsurance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="111">
   <si>
     <t>TestCase Id</t>
   </si>
@@ -271,27 +271,15 @@
     <t>22</t>
   </si>
   <si>
-    <t>TC08</t>
-  </si>
-  <si>
     <t>Rahul</t>
   </si>
   <si>
     <t>Rawat</t>
   </si>
   <si>
-    <t>House Number 17</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>House No. 12</t>
   </si>
   <si>
-    <t>r2016@abccom</t>
-  </si>
-  <si>
     <t>TC010</t>
   </si>
   <si>
@@ -362,6 +350,9 @@
   </si>
   <si>
     <t>2 Street</t>
+  </si>
+  <si>
+    <t>000</t>
   </si>
 </sst>
 </file>
@@ -804,8 +795,8 @@
   </sheetPr>
   <dimension ref="A1:AM14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -864,13 +855,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>8</v>
@@ -958,104 +949,115 @@
       </c>
     </row>
     <row r="2" spans="1:39" thickTop="1">
-      <c r="A2" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>43</v>
-      </c>
       <c r="L2" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="M2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="18" t="s">
+      <c r="O2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" s="18" t="s">
+      <c r="V2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="23" t="s">
+      <c r="AA2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="23" t="s">
+      <c r="AB2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="23" t="s">
+      <c r="AC2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE2" s="23" t="s">
+      <c r="AD2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" s="23">
+      <c r="AF2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="13">
         <v>1231231231</v>
       </c>
-      <c r="AH2" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI2" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="25" t="s">
+      <c r="AH2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AL2" s="26" t="s">
+      <c r="AL2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AM2" s="18" t="s">
+      <c r="AM2" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1085,10 +1087,10 @@
         <v>43</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>49</v>
@@ -1615,10 +1617,10 @@
         <v>43</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K8" s="35" t="s">
         <v>49</v>
@@ -1702,34 +1704,34 @@
     </row>
     <row r="9" spans="1:39" ht="15">
       <c r="A9" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>46</v>
@@ -1806,34 +1808,34 @@
     </row>
     <row r="10" spans="1:39" ht="15">
       <c r="A10" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G10" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="31" t="s">
         <v>93</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>97</v>
       </c>
       <c r="N10" s="13" t="s">
         <v>46</v>
@@ -1842,7 +1844,7 @@
         <v>47</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="15" t="s">
@@ -1910,7 +1912,7 @@
     </row>
     <row r="11" spans="1:39" ht="15">
       <c r="A11" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>49</v>
@@ -1925,19 +1927,19 @@
         <v>40</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G11" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="31" t="s">
         <v>93</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>97</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>46</v>
@@ -1960,7 +1962,7 @@
         <v>51</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="W11" s="8" t="s">
         <v>50</v>
@@ -2014,7 +2016,7 @@
     </row>
     <row r="12" spans="1:39" ht="15">
       <c r="A12" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>49</v>
@@ -2029,19 +2031,19 @@
         <v>40</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G12" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="31" t="s">
         <v>93</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>97</v>
       </c>
       <c r="N12" s="13" t="s">
         <v>46</v>
@@ -2054,7 +2056,7 @@
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S12" s="8"/>
       <c r="T12" s="8" t="s">
@@ -2118,34 +2120,34 @@
     </row>
     <row r="13" spans="1:39" ht="15">
       <c r="A13" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G13" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="31" t="s">
         <v>93</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="M13" s="31" t="s">
-        <v>97</v>
       </c>
       <c r="N13" s="13" t="s">
         <v>46</v>
@@ -2174,7 +2176,7 @@
         <v>50</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Y13" s="13" t="s">
         <v>43</v>
@@ -2222,34 +2224,34 @@
     </row>
     <row r="14" spans="1:39" ht="15">
       <c r="A14" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G14" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="31" t="s">
         <v>93</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>97</v>
       </c>
       <c r="N14" s="13" t="s">
         <v>46</v>
@@ -2278,7 +2280,7 @@
         <v>50</v>
       </c>
       <c r="X14" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Y14" s="13" t="s">
         <v>43</v>
@@ -2305,7 +2307,7 @@
         <v>43</v>
       </c>
       <c r="AG14" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AH14" s="16" t="s">
         <v>47</v>
